--- a/src/test/resources/Book12.xlsx
+++ b/src/test/resources/Book12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Project\OpenCartCustomHybridFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EA3D75-6F20-43A7-ABC2-8E115F856328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A5DC57-F069-45FD-81F7-06004FDD35EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{88D5FDA5-5E45-4639-B651-4ED04DEE3CDF}"/>
   </bookViews>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Isaiah3@gmail.com</t>
-  </si>
-  <si>
-    <t>Isaiahrules</t>
-  </si>
-  <si>
     <t>rahul@gmail.com</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>kunal123@@</t>
+  </si>
+  <si>
+    <t>Hester1@gmail.com</t>
+  </si>
+  <si>
+    <t>Hesterrules123@</t>
   </si>
 </sst>
 </file>
@@ -420,37 +420,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -458,6 +458,7 @@
     <hyperlink ref="A1" r:id="rId1" xr:uid="{C818AA62-DC07-4606-AC77-91879813DE73}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{58E722DC-86DF-46B1-B70B-255EBDE6F864}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{F1266BA5-EA48-41E6-83D8-9075B434253C}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{0C68261F-885C-45B2-BCF6-D5DAC85462A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Book12.xlsx
+++ b/src/test/resources/Book12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Project\OpenCartCustomHybridFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A5DC57-F069-45FD-81F7-06004FDD35EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02672F34-7344-4C01-9A19-26B0E5D20E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{88D5FDA5-5E45-4639-B651-4ED04DEE3CDF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>rahul@gmail.com</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Hesterrules123@</t>
+  </si>
+  <si>
+    <t>both_wrong</t>
+  </si>
+  <si>
+    <t>both_correct</t>
   </si>
 </sst>
 </file>
@@ -417,48 +423,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B99291-5768-4251-9205-6C24828B59A5}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{C818AA62-DC07-4606-AC77-91879813DE73}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{58E722DC-86DF-46B1-B70B-255EBDE6F864}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{F1266BA5-EA48-41E6-83D8-9075B434253C}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{0C68261F-885C-45B2-BCF6-D5DAC85462A5}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{C818AA62-DC07-4606-AC77-91879813DE73}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{58E722DC-86DF-46B1-B70B-255EBDE6F864}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{F1266BA5-EA48-41E6-83D8-9075B434253C}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{0C68261F-885C-45B2-BCF6-D5DAC85462A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
